--- a/Reports/soi_use_ema_classification_results.xlsx
+++ b/Reports/soi_use_ema_classification_results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23812"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9220" yWindow="1900" windowWidth="15740" windowHeight="11980"/>
+    <workbookView xWindow="11140" yWindow="900" windowWidth="15740" windowHeight="11980" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="AGN" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="88">
   <si>
     <t>Concurrent Regression</t>
   </si>
@@ -41,6 +41,9 @@
     <t>0_1.25</t>
   </si>
   <si>
+    <t>0.055_0.5</t>
+  </si>
+  <si>
     <t>0.005_0.5</t>
   </si>
   <si>
@@ -75,6 +78,12 @@
   </si>
   <si>
     <t>0.1_0.75</t>
+  </si>
+  <si>
+    <t>0.05_0.75</t>
+  </si>
+  <si>
+    <t>0.04_0.75</t>
   </si>
   <si>
     <t>One Step Ahead Prediction</t>
@@ -103,6 +112,9 @@
     <t>0_0.005_1</t>
   </si>
   <si>
+    <t>.015_0.75</t>
+  </si>
+  <si>
     <t>0.005_1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -110,6 +122,10 @@
     <t>0.01_0.75</t>
   </si>
   <si>
+    <t>0.04_0.5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>.005_1.25</t>
   </si>
   <si>
@@ -117,21 +133,50 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>0.015_0.5</t>
+  </si>
+  <si>
     <t>Key</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>.045_0.75</t>
+  </si>
+  <si>
+    <t>0.05_0.5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>.025_1.25</t>
+  </si>
+  <si>
+    <t>0.055_1.5</t>
+  </si>
+  <si>
+    <t>0.05_1.5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>0.03_1.5</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>0.045_1.5</t>
+  </si>
+  <si>
+    <t>0.05_1.25</t>
+  </si>
+  <si>
     <t>0.03_0.5</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>0.015_1.5</t>
+  </si>
+  <si>
+    <t>.015_1.25</t>
+  </si>
+  <si>
     <t>0.08_1.5</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -139,6 +184,9 @@
     <t>0.1_1.25</t>
   </si>
   <si>
+    <t>.055_1.25</t>
+  </si>
+  <si>
     <t>0.08_0.5</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -185,6 +233,88 @@
   </si>
   <si>
     <t>0.08_0.75</t>
+  </si>
+  <si>
+    <t>AMZN_10000_135_2000_0.005_1.5</t>
+  </si>
+  <si>
+    <t>AMZN_10000_135_2000_0.005_1</t>
+  </si>
+  <si>
+    <t>AMZN_10000_135_2000_0.005_1.25</t>
+  </si>
+  <si>
+    <t>AMZN_10000_135_2000_0.005_0.5</t>
+  </si>
+  <si>
+    <t>AMZN_10000_135_2000_0.005_0.75</t>
+  </si>
+  <si>
+    <t>AMZN_10000_135_2000_0.045_1.5</t>
+  </si>
+  <si>
+    <t>AMZN_10000_135_2000_0.045_1.25</t>
+  </si>
+  <si>
+    <t>AMZN_10000_135_2000_0.045_1</t>
+  </si>
+  <si>
+    <t>AMZN_10000_135_2000_0.045_0.75</t>
+  </si>
+  <si>
+    <t>AMZN_10000_135_2000_0.045_0.5</t>
+  </si>
+  <si>
+    <t>AMZN_10000_135_2000_0.095_0.75</t>
+  </si>
+  <si>
+    <t>AMZN_10000_135_2000_0.095_0.5</t>
+  </si>
+  <si>
+    <t>AMZN_10000_135_2000_0.095_1.25</t>
+  </si>
+  <si>
+    <t>AMZN_10000_135_2000_0.095_1.5</t>
+  </si>
+  <si>
+    <t>AMZN_10000_135_2000_0.095_1</t>
+  </si>
+  <si>
+    <t>0.015_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>.055_0.75</t>
+  </si>
+  <si>
+    <t>0.055_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.04_1.25</t>
+  </si>
+  <si>
+    <t>0.04_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.04_1.5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>.045_1.25</t>
+  </si>
+  <si>
+    <t>0.045_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.055_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.05_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -408,9 +538,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="210">
+  <cellStyleXfs count="240">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -712,7 +872,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="210">
+  <cellStyles count="240">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
@@ -819,6 +979,21 @@
     <cellStyle name="访问过的超链接" xfId="205" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="207" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="239" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
@@ -923,6 +1098,21 @@
     <cellStyle name="超链接" xfId="204" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="206" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="208" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="210" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="212" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="214" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="216" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="218" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="220" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="222" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="224" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="226" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="228" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="230" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="232" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="234" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="236" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="238" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1221,10 +1411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1280,34 +1470,34 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="33" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I3" s="35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1318,25 +1508,25 @@
         <v>0.48586555616361099</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="D4" s="38">
         <v>8.9781551240658994E-2</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F4" s="39">
         <v>6.1526004173123899E-2</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="H4" s="39">
         <v>0.119729149738216</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J4" s="39">
         <v>9.5640730731292395E-2</v>
@@ -1344,19 +1534,19 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B5" s="39">
         <v>0.48586555616361099</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="38">
         <v>8.9772441612945494E-2</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F5" s="39">
         <v>6.1373103095093598E-2</v>
@@ -1368,7 +1558,7 @@
         <v>0.119729149738216</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J5" s="39">
         <v>9.5631627487579501E-2</v>
@@ -1376,31 +1566,31 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B6" s="39">
         <v>0.48578059204018298</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D6" s="38">
         <v>8.9698101574270703E-2</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F6" s="39">
         <v>6.1230304446951898E-2</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="H6" s="39">
         <v>0.119637536911936</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J6" s="39">
         <v>9.5152394783158997E-2</v>
@@ -1408,19 +1598,19 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="39">
         <v>0.48572385824541697</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="D7" s="38">
         <v>8.9626972322829901E-2</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F7" s="39">
         <v>6.1206452986296803E-2</v>
@@ -1432,7 +1622,7 @@
         <v>0.11925509954624</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J7" s="39">
         <v>9.4987693926633796E-2</v>
@@ -1440,31 +1630,31 @@
     </row>
     <row r="8" spans="1:10" ht="15" thickBot="1">
       <c r="A8" s="8" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B8" s="41">
         <v>0.48377893660724602</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D8" s="40">
         <v>8.5253318680735296E-2</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F8" s="41">
         <v>6.0333712995009003E-2</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="H8" s="41">
         <v>0.11902448736327501</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J8" s="41">
         <v>9.4679710293032598E-2</v>
@@ -1472,7 +1662,7 @@
     </row>
     <row r="9" spans="1:10" ht="15" thickBot="1">
       <c r="A9" s="36" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -1486,34 +1676,34 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1524,25 +1714,25 @@
         <v>0.32171203803241499</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" s="39">
         <v>4.1598879162405303E-2</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F11" s="39">
         <v>1.8537085444440701E-2</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="H11" s="39">
         <v>2.1379432383422398E-2</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="J11" s="39">
         <v>0.31779890601559602</v>
@@ -1550,25 +1740,25 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="4" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B12" s="39">
         <v>0.32171203803241499</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D12" s="39">
         <v>4.1144758817218699E-2</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F12" s="39">
         <v>1.8423982089408399E-2</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="H12" s="39">
         <v>2.1265795998069801E-2</v>
@@ -1582,31 +1772,31 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B13" s="39">
         <v>0.32169761826307303</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D13" s="39">
         <v>4.1119278195870398E-2</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F13" s="39">
         <v>1.8251512231929098E-2</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H13" s="39">
         <v>2.12641373025922E-2</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="J13" s="39">
         <v>0.317725794184963</v>
@@ -1614,13 +1804,13 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" s="39">
         <v>0.32168710780445198</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D14" s="39">
         <v>4.0996249240938497E-2</v>
@@ -1632,13 +1822,13 @@
         <v>1.8244204414103699E-2</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H14" s="39">
         <v>2.0999402113407999E-2</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="J14" s="39">
         <v>0.31760365013683201</v>
@@ -1646,25 +1836,25 @@
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="A15" s="8" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B15" s="41">
         <v>0.32157364599100702</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15" s="41">
         <v>4.0928592015294897E-2</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F15" s="41">
         <v>1.82323376444707E-2</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="H15" s="41">
         <v>2.09540933826056E-2</v>
@@ -1791,6 +1981,21 @@
         <f t="shared" si="2"/>
         <v>.005_0.75</v>
       </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="F27" s="39"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="F28" s="39"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="F29" s="39"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="F30" s="39"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="F31" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1818,7 +2023,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="A1:J15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1874,41 +2079,49 @@
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1">
       <c r="A3" s="23" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="2"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="28"/>
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4">
+        <v>5.7609787398012299E-2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4">
+        <v>8.8149632971744302E-2</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="29"/>
       <c r="G4" s="2"/>
@@ -1917,10 +2130,18 @@
       <c r="J4" s="29"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="4"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5">
+        <v>5.72818487465429E-2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5">
+        <v>8.8140655062019596E-2</v>
+      </c>
       <c r="E5" s="4"/>
       <c r="F5" s="7"/>
       <c r="G5" s="4"/>
@@ -1929,10 +2150,18 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="4"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6">
+        <v>5.72491308825928E-2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6">
+        <v>8.7938124376584298E-2</v>
+      </c>
       <c r="E6" s="4"/>
       <c r="F6" s="7"/>
       <c r="G6" s="4"/>
@@ -1941,10 +2170,18 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="4"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7">
+        <v>5.7124431024141102E-2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7">
+        <v>8.7899759580473899E-2</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="F7" s="7"/>
       <c r="G7" s="4"/>
@@ -1953,10 +2190,18 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="15" thickBot="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9"/>
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8">
+        <v>5.71233406411586E-2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8">
+        <v>8.7896263189131602E-2</v>
+      </c>
       <c r="E8" s="8"/>
       <c r="F8" s="11"/>
       <c r="G8" s="8"/>
@@ -1966,7 +2211,7 @@
     </row>
     <row r="9" spans="1:10" ht="15" thickBot="1">
       <c r="A9" s="30" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
@@ -1974,7 +2219,7 @@
       <c r="E9" s="31"/>
       <c r="F9" s="32"/>
       <c r="G9" s="30" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H9" s="31"/>
       <c r="I9" s="31"/>
@@ -1982,41 +2227,49 @@
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1">
       <c r="A10" s="26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="2"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="28"/>
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11">
+        <v>2.1049638927606099E-2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11">
+        <v>6.3989703685909102E-2</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="29"/>
       <c r="G11" s="2"/>
@@ -2025,10 +2278,18 @@
       <c r="J11" s="29"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="4"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12">
+        <v>2.10164082261858E-2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12">
+        <v>6.3980303364059604E-2</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="7"/>
       <c r="G12" s="4"/>
@@ -2037,10 +2298,18 @@
       <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13">
+        <v>2.1009865521169901E-2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13">
+        <v>6.3897426116587705E-2</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="7"/>
       <c r="G13" s="4"/>
@@ -2049,10 +2318,18 @@
       <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="4"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14">
+        <v>2.0903088142501702E-2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14">
+        <v>6.3889587135725595E-2</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="F14" s="7"/>
       <c r="G14" s="4"/>
@@ -2061,10 +2338,18 @@
       <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1">
-      <c r="A15" s="8"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9"/>
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15">
+        <v>2.0870311085141299E-2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15">
+        <v>6.3888552329535303E-2</v>
+      </c>
       <c r="E15" s="8"/>
       <c r="F15" s="11"/>
       <c r="G15" s="8"/>
@@ -2152,34 +2437,34 @@
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1">
       <c r="A3" s="23" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2244,7 +2529,7 @@
     </row>
     <row r="9" spans="1:10" ht="15" thickBot="1">
       <c r="A9" s="30" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
@@ -2252,7 +2537,7 @@
       <c r="E9" s="31"/>
       <c r="F9" s="32"/>
       <c r="G9" s="30" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H9" s="31"/>
       <c r="I9" s="31"/>
@@ -2260,34 +2545,34 @@
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1">
       <c r="A10" s="26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2483,7 +2768,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="A1:J15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2538,101 +2823,201 @@
       <c r="I2" s="31"/>
       <c r="J2" s="32"/>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1">
+    <row r="3" spans="1:10">
       <c r="A3" s="23" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="2"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="29"/>
+      <c r="A4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="39">
+        <v>9.7611350403019603E-2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="39">
+        <v>0.107516761969171</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="39">
+        <v>0.44745208379857099</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="39">
+        <v>0.42166447627471099</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="39">
+        <v>7.7893427007758503E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="4"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="7"/>
+      <c r="A5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="39">
+        <v>9.6836723102390096E-2</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="39">
+        <v>0.107182709425985</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="39">
+        <v>0.44721235475925197</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="39">
+        <v>0.421645826286625</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" s="39">
+        <v>7.5702556424205994E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="4"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="7"/>
+      <c r="A6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="39">
+        <v>9.6624137688624101E-2</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="39">
+        <v>0.10716973994008901</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="39">
+        <v>0.44717557955086401</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="39">
+        <v>0.42149566361393997</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" s="39">
+        <v>7.4778267461281397E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="4"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="7"/>
+      <c r="A7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="39">
+        <v>9.5476479341832302E-2</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="39">
+        <v>0.10672202868002401</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="39">
+        <v>0.44685920185688399</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="39">
+        <v>0.42144386126731298</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="39">
+        <v>7.3056171600077699E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="15" thickBot="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11"/>
+      <c r="A8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="41">
+        <v>9.5470901226012997E-2</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="41">
+        <v>0.10605154291770499</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="41">
+        <v>0.44681813403696902</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="41">
+        <v>0.41852846466100402</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="41">
+        <v>7.2802236298338194E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="15" thickBot="1">
       <c r="A9" s="30" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
@@ -2640,212 +3025,312 @@
       <c r="E9" s="31"/>
       <c r="F9" s="32"/>
       <c r="G9" s="30" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H9" s="31"/>
       <c r="I9" s="31"/>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1">
+    <row r="10" spans="1:10">
       <c r="A10" s="26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>8</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="2"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="29"/>
+      <c r="A11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="38">
+        <v>9.1435135812399801E-2</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="39">
+        <v>0.112751577569029</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="39">
+        <v>0.42920248468760902</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="39">
+        <v>0.33286098038527101</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="39">
+        <v>6.3445801498238599E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="4"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="7"/>
+      <c r="A12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="38">
+        <v>9.14016345656299E-2</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="39">
+        <v>0.11236776983442801</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="39">
+        <v>0.42681636046444699</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="39">
+        <v>0.332837314158136</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="39">
+        <v>6.06475892518527E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="7"/>
+      <c r="A13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="38">
+        <v>9.0957811508613803E-2</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="39">
+        <v>0.111463175302367</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="39">
+        <v>0.42681344359074902</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="39">
+        <v>0.33275462774572201</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="39">
+        <v>6.0546272297332601E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="4"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="7"/>
+      <c r="A14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="38">
+        <v>9.0862704576553002E-2</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="39">
+        <v>0.110561731803788</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="39">
+        <v>0.42680655793841799</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="39">
+        <v>0.33273628508902803</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="39">
+        <v>6.0003215106595897E-2</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1">
-      <c r="A15" s="8"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="11"/>
+      <c r="A15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="40">
+        <v>8.9927315847038503E-2</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="41">
+        <v>0.110534984229805</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="41">
+        <v>0.42671758979059099</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="41">
+        <v>0.33267546059280301</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" s="41">
+        <v>5.9713412438987E-2</v>
+      </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="str">
-        <f>RIGHT(A11,9)</f>
-        <v/>
+        <f>RIGHT(A4,9)</f>
+        <v>0.015_0.5</v>
       </c>
       <c r="C17" t="str">
-        <f>RIGHT(C11,9)</f>
-        <v/>
+        <f>RIGHT(C4,9)</f>
+        <v>0.05_1.5</v>
       </c>
       <c r="E17" t="str">
-        <f>RIGHT(E4,9)</f>
-        <v/>
+        <f>RIGHT(E11,9)</f>
+        <v>0.055_0.5</v>
       </c>
       <c r="G17" t="str">
-        <f>RIGHT(G4,9)</f>
-        <v/>
+        <f>RIGHT(G11,9)</f>
+        <v>0.04_1.25</v>
       </c>
       <c r="I17" t="str">
-        <f>RIGHT(I4,9)</f>
-        <v/>
+        <f>RIGHT(I11,9)</f>
+        <v>0.05_0.5</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="str">
-        <f t="shared" ref="A18" si="0">RIGHT(A12,9)</f>
-        <v/>
+        <f t="shared" ref="A18:A21" si="0">RIGHT(A5,9)</f>
+        <v>0.015_1</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" ref="A18:C22" si="1">RIGHT(C12,9)</f>
-        <v/>
+        <f t="shared" ref="C18:C21" si="1">RIGHT(C5,9)</f>
+        <v>0.01_1.25</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" ref="E18:E21" si="2">RIGHT(E5,9)</f>
-        <v/>
+        <f t="shared" ref="E18:E21" si="2">RIGHT(E12,9)</f>
+        <v>0.055_1</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" ref="G18:G21" si="3">RIGHT(G5,9)</f>
-        <v/>
+        <f t="shared" ref="G18:G21" si="3">RIGHT(G12,9)</f>
+        <v>0.04_1.5</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" ref="I18:I21" si="4">RIGHT(I5,9)</f>
-        <v/>
+        <f t="shared" ref="I18:I21" si="4">RIGHT(I12,9)</f>
+        <v>0.05_1.5</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="str">
-        <f t="shared" ref="A19" si="5">RIGHT(A13,9)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>.015_0.75</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0.01_1</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>.055_1.25</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0.04_1</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0.05_1.25</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="str">
-        <f t="shared" ref="A20" si="6">RIGHT(A14,9)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>.015_1.25</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0.01_1.5</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.055_1.5</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0.04_0.5</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0.05_0.75</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="str">
-        <f t="shared" ref="A21" si="7">RIGHT(A15,9)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>0.015_1.5</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0.01_0.75</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>.055_0.75</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0.04_0.75</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0.05_1</v>
       </c>
     </row>
   </sheetData>
@@ -2870,8 +3355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="A1:J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2928,34 +3413,34 @@
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1">
       <c r="A3" s="23" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3020,7 +3505,7 @@
     </row>
     <row r="9" spans="1:10" ht="15" thickBot="1">
       <c r="A9" s="30" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
@@ -3028,7 +3513,7 @@
       <c r="E9" s="31"/>
       <c r="F9" s="32"/>
       <c r="G9" s="30" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H9" s="31"/>
       <c r="I9" s="31"/>
@@ -3036,34 +3521,34 @@
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1">
       <c r="A10" s="26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3274,27 +3759,27 @@
   <sheetData>
     <row r="1" spans="1:4" ht="29" thickBot="1">
       <c r="A1" s="12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1">
       <c r="A2" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="6">
         <v>0.35539929999999997</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="7">
         <v>0.43066070233138998</v>
@@ -3302,25 +3787,25 @@
     </row>
     <row r="3" spans="1:4" ht="29" thickBot="1">
       <c r="A3" s="12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1">
       <c r="A4" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="14">
         <v>0</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="11">
         <v>1.30303420370288E-2</v>
